--- a/Derived_Data/Marine_Sediment_Screening_Values_simplified.xlsx
+++ b/Derived_Data/Marine_Sediment_Screening_Values_simplified.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cbohl\Dropbox\Work\Portland Dredge Toxicity Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\curtis.bohlen\Documents\State of the Bay 2020\Data\B15. Toxics\PortlandHarborToxics\Derived_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BAB1732-105E-4660-A330-FD276268E2C3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="15260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="22776" windowHeight="15264" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Screening Values" sheetId="2" r:id="rId1"/>
     <sheet name="Metadata" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -142,9 +141,6 @@
     <t>PYRENE</t>
   </si>
   <si>
-    <t>All data from squirts typed in by hand, by Curtis C. Bohlen, Sept. 17, 2019.  Not yet formally reviewed for errors.</t>
-  </si>
-  <si>
     <t>FLUORENE19</t>
   </si>
   <si>
@@ -224,12 +220,15 @@
   </si>
   <si>
     <t>ZINC</t>
+  </si>
+  <si>
+    <t>All data from squirts typed in by hand, by Curtis C. Bohlen, Sept. 17, 2019.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -595,22 +594,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="8" width="15.7265625" customWidth="1"/>
+    <col min="1" max="1" width="25.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>10</v>
@@ -634,12 +633,12 @@
         <v>16</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B2">
         <v>7400</v>
@@ -663,9 +662,9 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B3">
         <v>380</v>
@@ -689,9 +688,9 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B4">
         <v>49000</v>
@@ -715,9 +714,9 @@
         <v>62000</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B5">
         <v>32000</v>
@@ -741,9 +740,9 @@
         <v>39000</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6">
         <v>30000</v>
@@ -767,9 +766,9 @@
         <v>400000</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B7">
         <v>140</v>
@@ -793,9 +792,9 @@
         <v>410</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B8">
         <v>15000</v>
@@ -819,9 +818,9 @@
         <v>110000</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B9">
         <v>230</v>
@@ -845,9 +844,9 @@
         <v>3100</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B10">
         <v>94000</v>
@@ -871,7 +870,7 @@
         <v>410000</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>22</v>
       </c>
@@ -897,7 +896,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>23</v>
       </c>
@@ -923,7 +922,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>24</v>
       </c>
@@ -949,7 +948,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>25</v>
       </c>
@@ -975,7 +974,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>26</v>
       </c>
@@ -1001,7 +1000,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>27</v>
       </c>
@@ -1015,7 +1014,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>28</v>
       </c>
@@ -1029,7 +1028,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>29</v>
       </c>
@@ -1043,7 +1042,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>30</v>
       </c>
@@ -1069,7 +1068,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>31</v>
       </c>
@@ -1095,7 +1094,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>32</v>
       </c>
@@ -1121,9 +1120,9 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B22">
         <v>19</v>
@@ -1147,7 +1146,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>33</v>
       </c>
@@ -1161,7 +1160,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>34</v>
       </c>
@@ -1187,7 +1186,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>35</v>
       </c>
@@ -1213,9 +1212,9 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C26">
         <v>1.22</v>
@@ -1233,12 +1232,12 @@
         <v>16</v>
       </c>
       <c r="I26" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C27">
         <v>2.0699999999999998</v>
@@ -1256,12 +1255,12 @@
         <v>9</v>
       </c>
       <c r="I27" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C28">
         <v>1.19</v>
@@ -1279,20 +1278,20 @@
         <v>12</v>
       </c>
       <c r="I28" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H29">
         <v>9.5</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B30">
         <v>0.83</v>
@@ -1316,9 +1315,9 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C31">
         <v>0.32</v>
@@ -1330,20 +1329,20 @@
         <v>4.8</v>
       </c>
       <c r="I31" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H32">
         <v>0.3</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B33">
         <v>0.6</v>
@@ -1352,17 +1351,17 @@
         <v>2.74</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H34">
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C35">
         <v>3.89</v>
@@ -1386,103 +1385,103 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:A24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A9" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A9" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId2"/>
